--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Final-MIS-Project\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E2D36C-4D35-4F3A-AB77-438CE760B916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9323EE9-6C0E-4E71-9388-9132536CAF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,6 +212,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,7 +505,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +606,9 @@
         <v>9</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="15">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Final-MIS-Project\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e046d29d2472528d/Documenti/GitHub/Final-MIS-Project/Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9323EE9-6C0E-4E71-9388-9132536CAF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{D9323EE9-6C0E-4E71-9388-9132536CAF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{244BBA79-492F-4F42-9AC8-F54091CD536F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>No.</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>Name of Participants</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Stefano</t>
+  </si>
+  <si>
+    <t>Giorgia</t>
+  </si>
+  <si>
+    <t>Maria Nicole</t>
   </si>
 </sst>
 </file>
@@ -174,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -215,6 +230,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -505,7 +523,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,8 +633,12 @@
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.5</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -624,8 +646,12 @@
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -633,8 +659,12 @@
       <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
@@ -642,14 +672,24 @@
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.6875</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e046d29d2472528d/Documenti/GitHub/Final-MIS-Project/Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{D9323EE9-6C0E-4E71-9388-9132536CAF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{244BBA79-492F-4F42-9AC8-F54091CD536F}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{D9323EE9-6C0E-4E71-9388-9132536CAF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8BD935C-348F-4262-9BAE-A43B039778BB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>No.</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Maria Nicole</t>
+  </si>
+  <si>
+    <t>Luca</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,11 +188,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -235,6 +249,10 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +541,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,16 +703,22 @@
       <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0.6875</v>
+      <c r="B13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.625</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.6875</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e046d29d2472528d/Documenti/GitHub/Final-MIS-Project/Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Final-MIS-Project\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{D9323EE9-6C0E-4E71-9388-9132536CAF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8BD935C-348F-4262-9BAE-A43B039778BB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C02477-BA62-4C94-9357-1546981A678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>No.</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Luca</t>
+  </si>
+  <si>
+    <t>First Mode</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -106,12 +112,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -130,18 +130,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -161,6 +149,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,56 +209,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,226 +548,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="C3" s="12"/>
+      <c r="F3" s="10">
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="2">
+      <c r="E4" s="1"/>
+      <c r="F4" s="11">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="C6" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="C7" s="4"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="15">
+      <c r="C8" s="4"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="17">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13">
         <v>0.5</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="3"/>
+      <c r="D10" s="13">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="F10" s="1"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="3"/>
+      <c r="D11" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="3"/>
+      <c r="D12" s="13">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16">
         <v>0.625</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="3"/>
+      <c r="D14" s="13">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
     </row>

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Final-MIS-Project\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Documents\Studium\Master\Trient\Uni Trient\Multisensory Interactive Systems\Final-MIS-Project\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C02477-BA62-4C94-9357-1546981A678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC114D-E3DA-4153-8325-E8EF808CCCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>No.</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>Angelo</t>
+  </si>
+  <si>
+    <t>Federica (Angelo's girlfriend)</t>
   </si>
 </sst>
 </file>
@@ -265,7 +271,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,23 +554,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" customWidth="1"/>
+    <col min="2" max="2" width="19.296875" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="25.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -584,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -592,7 +598,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -604,7 +610,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -618,7 +624,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -630,7 +636,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -642,7 +648,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -654,7 +660,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -668,126 +674,150 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="17">
+        <v>0.6875</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D11" s="13">
         <v>0.5</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="13">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="13">
-        <v>0.54166666666666663</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="13">
-        <v>0.60416666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="13">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="13">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="17" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+    <row r="18" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+    <row r="19" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+    <row r="20" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+    <row r="21" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+    <row r="22" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+    <row r="23" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+    <row r="24" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
         <v>20</v>
       </c>
     </row>

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Documents\Studium\Master\Trient\Uni Trient\Multisensory Interactive Systems\Final-MIS-Project\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\MIS Material\00 - Final Project\Final-MIS-Project\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC114D-E3DA-4153-8325-E8EF808CCCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32DC70E-DAEA-4441-9661-C5B01FD967D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Federica (Angelo's girlfriend)</t>
+  </si>
+  <si>
+    <t>Clara Isabel</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -269,9 +272,14 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,20 +565,20 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" customWidth="1"/>
-    <col min="2" max="2" width="19.296875" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.89453125" customWidth="1"/>
+    <col min="2" max="2" width="19.3125" customWidth="1"/>
+    <col min="3" max="3" width="10.89453125" customWidth="1"/>
+    <col min="4" max="4" width="17.3125" customWidth="1"/>
+    <col min="5" max="5" width="16.1015625" customWidth="1"/>
+    <col min="6" max="6" width="16.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="25.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -590,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -598,7 +606,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -610,7 +618,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -624,7 +632,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -636,7 +644,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -648,7 +656,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -660,7 +668,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -674,7 +682,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -686,7 +694,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="25.8" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -698,7 +706,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -714,7 +722,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -729,7 +737,7 @@
       <c r="F12" s="1"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -743,7 +751,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -757,7 +765,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -769,7 +777,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -781,42 +789,50 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="6">
         <v>20</v>
       </c>

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\MIS Material\00 - Final Project\Final-MIS-Project\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Documents\Studium\Master\Trient\Uni Trient\Multisensory Interactive Systems\Final-MIS-Project\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32DC70E-DAEA-4441-9661-C5B01FD967D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CF124F-FBA2-4224-A6A2-E6212DD5E5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>No.</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Clara Isabel</t>
+  </si>
+  <si>
+    <t>Anna</t>
   </si>
 </sst>
 </file>
@@ -279,7 +282,7 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,23 +565,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.89453125" customWidth="1"/>
-    <col min="2" max="2" width="19.3125" customWidth="1"/>
-    <col min="3" max="3" width="10.89453125" customWidth="1"/>
-    <col min="4" max="4" width="17.3125" customWidth="1"/>
-    <col min="5" max="5" width="16.1015625" customWidth="1"/>
-    <col min="6" max="6" width="16.41796875" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" customWidth="1"/>
+    <col min="2" max="2" width="19.296875" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -598,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -606,7 +609,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -618,7 +621,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -632,7 +635,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -644,7 +647,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -656,7 +659,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -668,7 +671,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -682,158 +685,158 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="17">
-        <v>0.66666666666666663</v>
-      </c>
+    <row r="9" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="25.8" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="17">
-        <v>0.6875</v>
-      </c>
+    <row r="10" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="13">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="13">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="13">
-        <v>0.52083333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="13" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="13">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="13">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="17">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="6">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="13">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="17">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="6">
         <v>20</v>
       </c>
     </row>

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Documents\Studium\Master\Trient\Uni Trient\Multisensory Interactive Systems\Final-MIS-Project\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Final-MIS-Project\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CF124F-FBA2-4224-A6A2-E6212DD5E5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27B3AC1-3342-4B6A-9356-381D5E94120F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>No.</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>Sam</t>
-  </si>
-  <si>
-    <t>Enrica</t>
-  </si>
-  <si>
-    <t>Lucia</t>
-  </si>
-  <si>
-    <t>Asia</t>
   </si>
   <si>
     <t>Prince</t>
@@ -221,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -280,9 +271,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -568,28 +560,28 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" customWidth="1"/>
-    <col min="2" max="2" width="19.296875" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>1</v>
@@ -601,7 +593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -609,233 +601,212 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="F3" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="11">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="13">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="13">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="13">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16">
+        <v>0.625</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="17">
-        <v>0.64583333333333337</v>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="13">
+        <v>0.6875</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="17">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="13">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="B10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="13">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="17">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="13">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="17">
+        <v>0.6875</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="17">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="13">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="F14" s="10">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="17">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="17">
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>20</v>
       </c>

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\MIS Material\00 - Final Project\Final-MIS-Project\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e046d29d2472528d/Documenti/GitHub/Final-MIS-Project/Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32DC70E-DAEA-4441-9661-C5B01FD967D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A32DC70E-DAEA-4441-9661-C5B01FD967D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE51F301-A966-4EC9-BDBA-F8CF17CF7316}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>No.</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Clara Isabel</t>
+  </si>
+  <si>
+    <t>A/H</t>
   </si>
 </sst>
 </file>
@@ -565,20 +568,20 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.89453125" customWidth="1"/>
-    <col min="2" max="2" width="19.3125" customWidth="1"/>
-    <col min="3" max="3" width="10.89453125" customWidth="1"/>
-    <col min="4" max="4" width="17.3125" customWidth="1"/>
-    <col min="5" max="5" width="16.1015625" customWidth="1"/>
-    <col min="6" max="6" width="16.41796875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -598,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -606,7 +609,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -618,7 +621,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -632,7 +635,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -644,7 +647,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -656,7 +659,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -668,7 +671,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -682,7 +685,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -694,7 +697,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="25.8" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -706,7 +709,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -722,14 +725,16 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="13">
         <v>0.52083333333333337</v>
       </c>
@@ -737,59 +742,67 @@
       <c r="F12" s="1"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D13" s="13">
         <v>0.54166666666666663</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="13">
         <v>0.60416666666666663</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>11</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="16">
         <v>0.625</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="13">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -802,37 +815,37 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>20</v>
       </c>

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e046d29d2472528d/Documenti/GitHub/Final-MIS-Project/Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A32DC70E-DAEA-4441-9661-C5B01FD967D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE51F301-A966-4EC9-BDBA-F8CF17CF7316}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{A32DC70E-DAEA-4441-9661-C5B01FD967D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85F50BE1-4433-4252-9035-A12F7AE2AF1B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>No.</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>A/H</t>
+  </si>
+  <si>
+    <t>Gianmarco</t>
   </si>
 </sst>
 </file>
@@ -809,8 +812,6 @@
       <c r="B17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
       <c r="E17" s="23">
         <v>0.70833333333333337</v>
       </c>
@@ -818,6 +819,12 @@
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>14</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e046d29d2472528d/Documenti/GitHub/Final-MIS-Project/Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Final-MIS-Project\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{A32DC70E-DAEA-4441-9661-C5B01FD967D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85F50BE1-4433-4252-9035-A12F7AE2AF1B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB33F9A-51D4-4E5D-A6E1-BF2CB91A7FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>No.</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>Sam</t>
-  </si>
-  <si>
-    <t>Enrica</t>
-  </si>
-  <si>
-    <t>Lucia</t>
-  </si>
-  <si>
-    <t>Asia</t>
   </si>
   <si>
     <t>Prince</t>
@@ -224,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -283,6 +274,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,17 +562,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
@@ -589,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>1</v>
@@ -616,26 +610,28 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="F3" s="10">
-        <v>0.625</v>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="11">
-        <v>0.64583333333333337</v>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -643,217 +639,191 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5" s="24"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E6" s="24"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="E7" s="24"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="17">
-        <v>0.64583333333333337</v>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.6875</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1"/>
       <c r="E9" s="17">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1"/>
       <c r="E10" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="17">
         <v>0.6875</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="13">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="C12" s="22"/>
+      <c r="E12" s="23">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="E13" s="23">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="F14" s="10">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0.625</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="11">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="23">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>14</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0.72916666666666663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
         <v>20</v>
       </c>
     </row>

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Final-MIS-Project\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Documents\Studium\Master\Trient\Uni Trient\Multisensory Interactive Systems\Final-MIS-Project\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB33F9A-51D4-4E5D-A6E1-BF2CB91A7FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184D6ADD-4764-447F-AB64-78AC045351AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Gianmarco</t>
+  </si>
+  <si>
+    <t>Anna</t>
   </si>
 </sst>
 </file>
@@ -279,7 +282,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,20 +568,20 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" customWidth="1"/>
+    <col min="2" max="2" width="28.296875" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -598,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -606,7 +609,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -620,7 +623,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -634,7 +637,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -650,7 +653,7 @@
       <c r="E5" s="24"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -666,7 +669,7 @@
       <c r="E6" s="24"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -682,7 +685,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -697,132 +700,141 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1"/>
       <c r="E9" s="17">
-        <v>0.64583333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1"/>
       <c r="E10" s="17">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="1"/>
       <c r="E11" s="17">
-        <v>0.6875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="E12" s="23">
-        <v>0.70833333333333337</v>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="17">
+        <v>0.6875</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>20</v>
+      <c r="B13" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="22"/>
       <c r="E13" s="23">
-        <v>0.72916666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="F14" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="E14" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="11">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="F15" s="10">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>20</v>
       </c>

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Documents\Studium\Master\Trient\Uni Trient\Multisensory Interactive Systems\Final-MIS-Project\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Final-MIS-Project\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184D6ADD-4764-447F-AB64-78AC045351AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D41BBA8-F3A9-4E16-964D-D74679DCD168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>No.</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Luca</t>
   </si>
   <si>
-    <t>First Mode</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -91,6 +88,12 @@
   </si>
   <si>
     <t>Anna</t>
+  </si>
+  <si>
+    <t>First Mode (Females)</t>
+  </si>
+  <si>
+    <t>First Mode (Males)</t>
   </si>
 </sst>
 </file>
@@ -282,7 +285,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,23 +568,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" customWidth="1"/>
-    <col min="2" max="2" width="28.296875" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -589,27 +593,31 @@
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -617,27 +625,29 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="13">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -645,15 +655,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="13">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="24"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -661,31 +672,33 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="13">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="13">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="24"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="16">
         <v>0.625</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="24"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -693,28 +706,32 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="13">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="13">
         <v>0.6875</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="17">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="17">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -722,68 +739,83 @@
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="17">
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="17">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="17">
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="17">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="17">
         <v>0.6875</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="E13" s="23">
+        <v>17</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="F13" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="1"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="E14" s="23">
+      <c r="D14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="23">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -791,11 +823,14 @@
         <v>5</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="F15" s="10">
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="10">
         <v>0.625</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -803,38 +838,41 @@
         <v>4</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="11">
+      <c r="F16" s="1"/>
+      <c r="G16" s="11">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>20</v>
       </c>

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Final-MIS-Project\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Documents\Studium\Master\Trient\Uni Trient\Multisensory Interactive Systems\Final-MIS-Project\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D41BBA8-F3A9-4E16-964D-D74679DCD168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10933F89-EC25-4F5F-8A3A-CC5CB751B202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>No.</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>First Mode (Males)</t>
+  </si>
+  <si>
+    <t>Sveta (English only)</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,21 +574,21 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" customWidth="1"/>
+    <col min="6" max="6" width="16.09765625" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -608,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -617,7 +620,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -632,7 +635,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -647,7 +650,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -664,7 +667,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -681,7 +684,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -698,7 +701,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -714,7 +717,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -731,7 +734,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -748,7 +751,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -765,7 +768,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -782,12 +785,12 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>14</v>
@@ -799,7 +802,7 @@
       <c r="G13" s="1"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -815,7 +818,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -830,7 +833,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -847,32 +850,42 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>20</v>
       </c>

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Documents\Studium\Master\Trient\Uni Trient\Multisensory Interactive Systems\Final-MIS-Project\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10933F89-EC25-4F5F-8A3A-CC5CB751B202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FDB751-D7D1-450C-B08F-036B0C96D1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>No.</t>
   </si>
@@ -97,13 +97,16 @@
   </si>
   <si>
     <t>Sveta (English only)</t>
+  </si>
+  <si>
+    <t>Teresa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,10 +115,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -224,68 +235,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -571,324 +590,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.8984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.8984375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" customWidth="1"/>
-    <col min="5" max="5" width="17.296875" customWidth="1"/>
-    <col min="6" max="6" width="16.09765625" customWidth="1"/>
-    <col min="7" max="7" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" customWidth="1"/>
+    <col min="6" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" ht="36.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="13">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="13">
+      <c r="D5" s="9"/>
+      <c r="E5" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="13">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="3">
         <v>0.625</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="13">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10">
         <v>0.6875</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="F8" s="2"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="17">
+      <c r="D9" s="15"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="16">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="17">
+      <c r="E10" s="12"/>
+      <c r="F10" s="16">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="17">
+      <c r="E11" s="12"/>
+      <c r="F11" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="18.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="17">
+      <c r="D12" s="15"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="16">
         <v>0.6875</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="F13" s="23">
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="G13" s="12"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="23">
+      <c r="E14" s="2"/>
+      <c r="F14" s="5">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="10">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7">
         <v>0.625</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+    <row r="17" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="20">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="11">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Documents\Studium\Master\Trient\Uni Trient\Multisensory Interactive Systems\Final-MIS-Project\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e046d29d2472528d/Documenti/GitHub/Final-MIS-Project/Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FDB751-D7D1-450C-B08F-036B0C96D1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{B7FDB751-D7D1-450C-B08F-036B0C96D1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16686D6A-93F4-4705-8F28-FC0FB9A92D1D}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2355" yWindow="3210" windowWidth="28800" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>No.</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Teresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico </t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -590,23 +593,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -629,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -638,7 +641,7 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -655,7 +658,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -672,7 +675,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -689,7 +692,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -706,7 +709,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -723,7 +726,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -740,7 +743,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -757,7 +760,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -774,7 +777,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -791,7 +794,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="18.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -808,7 +811,7 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -826,7 +829,7 @@
       <c r="G13" s="12"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -843,82 +846,92 @@
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="5">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="7">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="20">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="7">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G18" s="20">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -929,7 +942,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -940,7 +953,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -951,16 +964,18 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -969,7 +984,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -978,7 +993,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -987,7 +1002,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -996,7 +1011,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -1005,7 +1020,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -1014,6 +1029,15 @@
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment/Experiment's Timetable.xlsx
+++ b/Experiment/Experiment's Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e046d29d2472528d/Documenti/GitHub/Final-MIS-Project/Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Documents\Studium\Master\Trient\Uni Trient\Multisensory Interactive Systems\Final-MIS-Project\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{B7FDB751-D7D1-450C-B08F-036B0C96D1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16686D6A-93F4-4705-8F28-FC0FB9A92D1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2BCBC1-8656-4A64-9B8A-AD609CC2CF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2355" yWindow="3210" windowWidth="28800" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Angelo</t>
   </si>
   <si>
-    <t>Federica (Angelo's girlfriend)</t>
-  </si>
-  <si>
     <t>Clara Isabel</t>
   </si>
   <si>
@@ -96,13 +93,16 @@
     <t>First Mode (Males)</t>
   </si>
   <si>
-    <t>Sveta (English only)</t>
-  </si>
-  <si>
     <t>Teresa</t>
   </si>
   <si>
     <t xml:space="preserve">Federico </t>
+  </si>
+  <si>
+    <t>Federica</t>
+  </si>
+  <si>
+    <t>Sveta</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,21 +595,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" customWidth="1"/>
     <col min="6" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="36.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -617,10 +617,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>22</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>1</v>
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -641,7 +641,7 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -683,7 +683,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10">
@@ -692,7 +692,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -709,7 +709,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -718,7 +718,7 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3">
         <v>0.625</v>
@@ -726,7 +726,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -734,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10">
@@ -743,12 +743,12 @@
       <c r="F8" s="2"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>14</v>
@@ -760,7 +760,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -777,7 +777,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -786,7 +786,7 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="16">
@@ -794,15 +794,15 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="12"/>
@@ -811,12 +811,12 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -829,12 +829,12 @@
       <c r="G13" s="12"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
@@ -846,16 +846,16 @@
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="5">
@@ -863,15 +863,15 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
@@ -880,7 +880,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -897,7 +897,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -914,12 +914,12 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>14</v>
@@ -931,10 +931,8 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
+    <row r="20" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -942,10 +940,8 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>19</v>
-      </c>
+    <row r="21" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -953,10 +949,8 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
+    <row r="22" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -964,10 +958,8 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>21</v>
-      </c>
+    <row r="23" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -975,7 +967,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -984,7 +976,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -993,7 +985,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -1002,7 +994,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -1011,7 +1003,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -1020,7 +1012,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -1029,7 +1021,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
